--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.685280666666666</v>
+        <v>7.453102666666666</v>
       </c>
       <c r="H2">
-        <v>20.055842</v>
+        <v>22.359308</v>
       </c>
       <c r="I2">
-        <v>0.04823797026856602</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="J2">
-        <v>0.04823797026856604</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N2">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O2">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P2">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q2">
-        <v>505.3411566848789</v>
+        <v>532.4808333194889</v>
       </c>
       <c r="R2">
-        <v>4548.070410163909</v>
+        <v>4792.3274998754</v>
       </c>
       <c r="S2">
-        <v>0.03178098016256359</v>
+        <v>0.03254309866771747</v>
       </c>
       <c r="T2">
-        <v>0.0317809801625636</v>
+        <v>0.03254309866771746</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.685280666666666</v>
+        <v>7.453102666666666</v>
       </c>
       <c r="H3">
-        <v>20.055842</v>
+        <v>22.359308</v>
       </c>
       <c r="I3">
-        <v>0.04823797026856602</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="J3">
-        <v>0.04823797026856604</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>36.459301</v>
       </c>
       <c r="O3">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P3">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q3">
-        <v>81.24688669849355</v>
+        <v>90.57830450263421</v>
       </c>
       <c r="R3">
-        <v>731.2219802864419</v>
+        <v>815.2047405237079</v>
       </c>
       <c r="S3">
-        <v>0.005109628733535011</v>
+        <v>0.005535783667945024</v>
       </c>
       <c r="T3">
-        <v>0.005109628733535012</v>
+        <v>0.005535783667945023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.685280666666666</v>
+        <v>7.453102666666666</v>
       </c>
       <c r="H4">
-        <v>20.055842</v>
+        <v>22.359308</v>
       </c>
       <c r="I4">
-        <v>0.04823797026856602</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="J4">
-        <v>0.04823797026856604</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N4">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O4">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P4">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q4">
-        <v>179.2766757998845</v>
+        <v>138.4187544136373</v>
       </c>
       <c r="R4">
-        <v>1613.49008219896</v>
+        <v>1245.768789722736</v>
       </c>
       <c r="S4">
-        <v>0.01127473668399303</v>
+        <v>0.008459600609967503</v>
       </c>
       <c r="T4">
-        <v>0.01127473668399303</v>
+        <v>0.008459600609967501</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.685280666666666</v>
+        <v>7.453102666666666</v>
       </c>
       <c r="H5">
-        <v>20.055842</v>
+        <v>22.359308</v>
       </c>
       <c r="I5">
-        <v>0.04823797026856602</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="J5">
-        <v>0.04823797026856604</v>
+        <v>0.0465828813588002</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N5">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O5">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P5">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q5">
-        <v>1.154786412810444</v>
+        <v>0.7264613700226668</v>
       </c>
       <c r="R5">
-        <v>10.393077715294</v>
+        <v>6.538152330204</v>
       </c>
       <c r="S5">
-        <v>7.262468847438895E-05</v>
+        <v>4.439841317020336E-05</v>
       </c>
       <c r="T5">
-        <v>7.262468847438898E-05</v>
+        <v>4.439841317020335E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>383.299987</v>
       </c>
       <c r="I6">
-        <v>0.921906613387149</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="J6">
-        <v>0.9219066133871491</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N6">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O6">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P6">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q6">
-        <v>9657.89712483171</v>
+        <v>9128.18484763076</v>
       </c>
       <c r="R6">
-        <v>86921.07412348538</v>
+        <v>82153.66362867685</v>
       </c>
       <c r="S6">
-        <v>0.6073865800876316</v>
+        <v>0.5578781461517425</v>
       </c>
       <c r="T6">
-        <v>0.6073865800876317</v>
+        <v>0.5578781461517425</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>383.299987</v>
       </c>
       <c r="I7">
-        <v>0.921906613387149</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="J7">
-        <v>0.9219066133871491</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>36.459301</v>
       </c>
       <c r="O7">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P7">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q7">
         <v>1552.761066592121</v>
@@ -883,10 +883,10 @@
         <v>13974.84959932909</v>
       </c>
       <c r="S7">
-        <v>0.09765337337314467</v>
+        <v>0.09489854551662065</v>
       </c>
       <c r="T7">
-        <v>0.09765337337314467</v>
+        <v>0.09489854551662064</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>383.299987</v>
       </c>
       <c r="I8">
-        <v>0.921906613387149</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="J8">
-        <v>0.9219066133871491</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N8">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O8">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P8">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q8">
-        <v>3426.270884239062</v>
+        <v>2372.877853254822</v>
       </c>
       <c r="R8">
-        <v>30836.43795815156</v>
+        <v>21355.9006792934</v>
       </c>
       <c r="S8">
-        <v>0.2154786831888161</v>
+        <v>0.1450208031404968</v>
       </c>
       <c r="T8">
-        <v>0.2154786831888161</v>
+        <v>0.1450208031404968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>383.299987</v>
       </c>
       <c r="I9">
-        <v>0.921906613387149</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="J9">
-        <v>0.9219066133871491</v>
+        <v>0.7985586056263754</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N9">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O9">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P9">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q9">
-        <v>22.06985959592322</v>
+        <v>12.45354434429233</v>
       </c>
       <c r="R9">
-        <v>198.628736363309</v>
+        <v>112.081899098631</v>
       </c>
       <c r="S9">
-        <v>0.001387976737556685</v>
+        <v>0.0007611108175154428</v>
       </c>
       <c r="T9">
-        <v>0.001387976737556685</v>
+        <v>0.0007611108175154426</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.134509666666667</v>
+        <v>24.73806933333333</v>
       </c>
       <c r="H10">
-        <v>12.403529</v>
+        <v>74.214208</v>
       </c>
       <c r="I10">
-        <v>0.02983275711522341</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="J10">
-        <v>0.02983275711522342</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N10">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O10">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P10">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q10">
-        <v>312.528074953644</v>
+        <v>1767.391160763377</v>
       </c>
       <c r="R10">
-        <v>2812.752674582795</v>
+        <v>15906.5204468704</v>
       </c>
       <c r="S10">
-        <v>0.01965493690540553</v>
+        <v>0.1080158783755968</v>
       </c>
       <c r="T10">
-        <v>0.01965493690540554</v>
+        <v>0.1080158783755967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.134509666666667</v>
+        <v>24.73806933333333</v>
       </c>
       <c r="H11">
-        <v>12.403529</v>
+        <v>74.214208</v>
       </c>
       <c r="I11">
-        <v>0.02983275711522341</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="J11">
-        <v>0.02983275711522342</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>36.459301</v>
       </c>
       <c r="O11">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P11">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q11">
-        <v>50.24711080813656</v>
+        <v>300.6442386609564</v>
       </c>
       <c r="R11">
-        <v>452.223997273229</v>
+        <v>2705.798147948607</v>
       </c>
       <c r="S11">
-        <v>0.003160048238096152</v>
+        <v>0.01837417332306863</v>
       </c>
       <c r="T11">
-        <v>0.003160048238096152</v>
+        <v>0.01837417332306862</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.134509666666667</v>
+        <v>24.73806933333333</v>
       </c>
       <c r="H12">
-        <v>12.403529</v>
+        <v>74.214208</v>
       </c>
       <c r="I12">
-        <v>0.02983275711522341</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="J12">
-        <v>0.02983275711522342</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N12">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O12">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P12">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q12">
-        <v>110.8736021807245</v>
+        <v>459.4345330881706</v>
       </c>
       <c r="R12">
-        <v>997.8624196265201</v>
+        <v>4134.910797793535</v>
       </c>
       <c r="S12">
-        <v>0.006972857256617368</v>
+        <v>0.02807880097474641</v>
       </c>
       <c r="T12">
-        <v>0.00697285725661737</v>
+        <v>0.02807880097474641</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.134509666666667</v>
+        <v>24.73806933333333</v>
       </c>
       <c r="H13">
-        <v>12.403529</v>
+        <v>74.214208</v>
       </c>
       <c r="I13">
-        <v>0.02983275711522341</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="J13">
-        <v>0.02983275711522342</v>
+        <v>0.1546162182837376</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N13">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O13">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P13">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q13">
-        <v>0.7141772836114445</v>
+        <v>2.411244355989334</v>
       </c>
       <c r="R13">
-        <v>6.427595552503</v>
+        <v>21.701199203904</v>
       </c>
       <c r="S13">
-        <v>4.491471510435958E-05</v>
+        <v>0.0001473656103258389</v>
       </c>
       <c r="T13">
-        <v>4.49147151043596E-05</v>
+        <v>0.0001473656103258389</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.003140333333333333</v>
+        <v>0.03876633333333333</v>
       </c>
       <c r="H14">
-        <v>0.009420999999999999</v>
+        <v>0.116299</v>
       </c>
       <c r="I14">
-        <v>2.265922906154528E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="J14">
-        <v>2.265922906154529E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N14">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O14">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P14">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q14">
-        <v>0.2373781682727778</v>
+        <v>2.769629025827777</v>
       </c>
       <c r="R14">
-        <v>2.136403514455</v>
+        <v>24.92666123245</v>
       </c>
       <c r="S14">
-        <v>1.492874814787191E-05</v>
+        <v>0.0001692686478471013</v>
       </c>
       <c r="T14">
-        <v>1.492874814787191E-05</v>
+        <v>0.0001692686478471012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.003140333333333333</v>
+        <v>0.03876633333333333</v>
       </c>
       <c r="H15">
-        <v>0.009420999999999999</v>
+        <v>0.116299</v>
       </c>
       <c r="I15">
-        <v>2.265922906154528E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="J15">
-        <v>2.265922906154529E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>36.459301</v>
       </c>
       <c r="O15">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P15">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q15">
-        <v>0.0381647860801111</v>
+        <v>0.4711311385554444</v>
       </c>
       <c r="R15">
-        <v>0.3434830747209999</v>
+        <v>4.240180246999</v>
       </c>
       <c r="S15">
-        <v>2.400189047093278E-06</v>
+        <v>2.879365071577074E-05</v>
       </c>
       <c r="T15">
-        <v>2.400189047093278E-06</v>
+        <v>2.879365071577073E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.003140333333333333</v>
+        <v>0.03876633333333333</v>
       </c>
       <c r="H16">
-        <v>0.009420999999999999</v>
+        <v>0.116299</v>
       </c>
       <c r="I16">
-        <v>2.265922906154528E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="J16">
-        <v>2.265922906154529E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N16">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O16">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P16">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q16">
-        <v>0.08421314660888889</v>
+        <v>0.7199669470786666</v>
       </c>
       <c r="R16">
-        <v>0.75791831948</v>
+        <v>6.479702523707999</v>
       </c>
       <c r="S16">
-        <v>5.296177258471537E-06</v>
+        <v>4.400150001684358E-05</v>
       </c>
       <c r="T16">
-        <v>5.296177258471539E-06</v>
+        <v>4.400150001684357E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.003140333333333333</v>
+        <v>0.03876633333333333</v>
       </c>
       <c r="H17">
-        <v>0.009420999999999999</v>
+        <v>0.116299</v>
       </c>
       <c r="I17">
-        <v>2.265922906154528E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="J17">
-        <v>2.265922906154529E-05</v>
+        <v>0.0002422947310868075</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N17">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O17">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P17">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q17">
-        <v>0.0005424475718888888</v>
+        <v>0.003778593276333334</v>
       </c>
       <c r="R17">
-        <v>0.004882028146999999</v>
+        <v>0.03400733948700001</v>
       </c>
       <c r="S17">
-        <v>3.4114608108561E-08</v>
+        <v>2.309325070919673E-07</v>
       </c>
       <c r="T17">
-        <v>3.411460810856101E-08</v>
+        <v>2.309325070919672E-07</v>
       </c>
     </row>
   </sheetData>
